--- a/io-table-xlsx/testWrite.xlsx
+++ b/io-table-xlsx/testWrite.xlsx
@@ -17,12 +17,28 @@
     <author/>
     <author>io.table</author>
   </authors>
-  <commentList/>
+  <commentList>
+    <comment ref="A1" authorId="1">
+      <text>
+        <t>Comment / a</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="1">
+      <text>
+        <t>Comment &lt;b</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="1">
+      <text>
+        <t>Comment &gt; c</t>
+      </text>
+    </comment>
+  </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>a</t>
   </si>
@@ -34,6 +50,30 @@
   </si>
   <si>
     <t>foo</t>
+  </si>
+  <si>
+    <t>777.333</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>123456 / </t>
+  </si>
+  <si>
+    <t>123456 &lt;</t>
+  </si>
+  <si>
+    <t>m³</t>
+  </si>
+  <si>
+    <t>IZAR RADIO EXTERN RS232 / L-BUS (v62)</t>
+  </si>
+  <si>
+    <t>values.volume.main (MEASUREMENT UNITS)</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -89,27 +129,56 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="3">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-</row>
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>12345</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12345.678</v>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
-      <c r="B3" t="n">
-        <v>12345</v>
+      <c r="B3" t="n" s="2">
+        <v>43180.40852320602</v>
       </c>
-      <c r="C3" t="n" s="2">
-        <v>43168.497339548616</v>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/io-table-xlsx/testWrite.xlsx
+++ b/io-table-xlsx/testWrite.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="data" r:id="rId3" sheetId="1"/>
+    <sheet name="ooo" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -15,7 +15,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
-    <author>io.table</author>
+    <author>IZARMobile</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="1">
@@ -155,7 +155,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="n" s="2">
-        <v>43180.40852320602</v>
+        <v>43180.41794226852</v>
       </c>
     </row>
     <row r="4">

--- a/io-table-xlsx/testWrite.xlsx
+++ b/io-table-xlsx/testWrite.xlsx
@@ -155,7 +155,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="n" s="2">
-        <v>43180.41794226852</v>
+        <v>43236.60022371528</v>
       </c>
     </row>
     <row r="4">

--- a/io-table-xlsx/testWrite.xlsx
+++ b/io-table-xlsx/testWrite.xlsx
@@ -155,7 +155,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="n" s="2">
-        <v>43236.60022371528</v>
+        <v>43286.54065141204</v>
       </c>
     </row>
     <row r="4">

--- a/io-table-xlsx/testWrite.xlsx
+++ b/io-table-xlsx/testWrite.xlsx
@@ -155,7 +155,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="n" s="2">
-        <v>43286.54065141204</v>
+        <v>43348.78241944444</v>
       </c>
     </row>
     <row r="4">

--- a/io-table-xlsx/testWrite.xlsx
+++ b/io-table-xlsx/testWrite.xlsx
@@ -155,7 +155,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="n" s="2">
-        <v>43348.78241944444</v>
+        <v>43348.83029820602</v>
       </c>
     </row>
     <row r="4">
